--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H2">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N2">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O2">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P2">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q2">
-        <v>21.52639776862422</v>
+        <v>40.81098024913333</v>
       </c>
       <c r="R2">
-        <v>193.737579917618</v>
+        <v>367.2988222422</v>
       </c>
       <c r="S2">
-        <v>0.2806709937180694</v>
+        <v>0.404688580536709</v>
       </c>
       <c r="T2">
-        <v>0.2806709937180694</v>
+        <v>0.4046885805367091</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H3">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.468992</v>
       </c>
       <c r="O3">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P3">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q3">
-        <v>2.459947055971555</v>
+        <v>4.257821531818667</v>
       </c>
       <c r="R3">
-        <v>22.139523503744</v>
+        <v>38.320393786368</v>
       </c>
       <c r="S3">
-        <v>0.03207391185996385</v>
+        <v>0.04222127822883952</v>
       </c>
       <c r="T3">
-        <v>0.03207391185996384</v>
+        <v>0.04222127822883952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H4">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N4">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O4">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P4">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q4">
-        <v>0.8430076725074443</v>
+        <v>3.324311600351999</v>
       </c>
       <c r="R4">
-        <v>7.587069052566999</v>
+        <v>29.918804403168</v>
       </c>
       <c r="S4">
-        <v>0.0109915185855893</v>
+        <v>0.03296443590905258</v>
       </c>
       <c r="T4">
-        <v>0.0109915185855893</v>
+        <v>0.03296443590905258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H5">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I5">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J5">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N5">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O5">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P5">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q5">
-        <v>10.32739680201355</v>
+        <v>10.42305271501067</v>
       </c>
       <c r="R5">
-        <v>92.94657121812199</v>
+        <v>93.807474435096</v>
       </c>
       <c r="S5">
-        <v>0.1346533105119338</v>
+        <v>0.1033567530685944</v>
       </c>
       <c r="T5">
-        <v>0.1346533105119337</v>
+        <v>0.1033567530685944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H6">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I6">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J6">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N6">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O6">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P6">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q6">
-        <v>0.7134011194174444</v>
+        <v>1.597240560797333</v>
       </c>
       <c r="R6">
-        <v>6.420610074757</v>
+        <v>14.375165047176</v>
       </c>
       <c r="S6">
-        <v>0.009301649224299092</v>
+        <v>0.01583850746487416</v>
       </c>
       <c r="T6">
-        <v>0.00930164922429909</v>
+        <v>0.01583850746487416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.060777</v>
       </c>
       <c r="I7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N7">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O7">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P7">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q7">
-        <v>19.25180236688867</v>
+        <v>21.08702759185833</v>
       </c>
       <c r="R7">
-        <v>173.266221301998</v>
+        <v>189.783248326725</v>
       </c>
       <c r="S7">
-        <v>0.251013781277157</v>
+        <v>0.2091025310294719</v>
       </c>
       <c r="T7">
-        <v>0.251013781277157</v>
+        <v>0.2091025310294719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.060777</v>
       </c>
       <c r="I8">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J8">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.468992</v>
       </c>
       <c r="O8">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P8">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q8">
         <v>2.200015769642667</v>
@@ -948,10 +948,10 @@
         <v>19.800141926784</v>
       </c>
       <c r="S8">
-        <v>0.02868480917699285</v>
+        <v>0.02181572835398811</v>
       </c>
       <c r="T8">
-        <v>0.02868480917699284</v>
+        <v>0.0218157283539881</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>3.060777</v>
       </c>
       <c r="I9">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J9">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N9">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O9">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P9">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q9">
-        <v>0.7539309307263333</v>
+        <v>1.717671323076</v>
       </c>
       <c r="R9">
-        <v>6.785378376536999</v>
+        <v>15.459041907684</v>
       </c>
       <c r="S9">
-        <v>0.009830095392466256</v>
+        <v>0.01703271926625676</v>
       </c>
       <c r="T9">
-        <v>0.009830095392466254</v>
+        <v>0.01703271926625676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>3.060777</v>
       </c>
       <c r="I10">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J10">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N10">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O10">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P10">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q10">
-        <v>9.236148301904667</v>
+        <v>5.385589830263666</v>
       </c>
       <c r="R10">
-        <v>83.125334717142</v>
+        <v>48.470308472373</v>
       </c>
       <c r="S10">
-        <v>0.1204251147770517</v>
+        <v>0.05340441936110132</v>
       </c>
       <c r="T10">
-        <v>0.1204251147770517</v>
+        <v>0.05340441936110131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.060777</v>
       </c>
       <c r="I11">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J11">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N11">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O11">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P11">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q11">
-        <v>0.6380193057363334</v>
+        <v>0.8252939667403334</v>
       </c>
       <c r="R11">
-        <v>5.742173751626999</v>
+        <v>7.427645700663001</v>
       </c>
       <c r="S11">
-        <v>0.008318786750904408</v>
+        <v>0.008183754516230915</v>
       </c>
       <c r="T11">
-        <v>0.008318786750904406</v>
+        <v>0.008183754516230914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H12">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I12">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J12">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N12">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O12">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P12">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q12">
-        <v>1.303336938251334</v>
+        <v>1.603881394975</v>
       </c>
       <c r="R12">
-        <v>11.730032444262</v>
+        <v>14.434932554775</v>
       </c>
       <c r="S12">
-        <v>0.01699350153891759</v>
+        <v>0.01590435909942284</v>
       </c>
       <c r="T12">
-        <v>0.01699350153891759</v>
+        <v>0.01590435909942284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H13">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I13">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J13">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.468992</v>
       </c>
       <c r="O13">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P13">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q13">
-        <v>0.1489399154773334</v>
+        <v>0.167333416064</v>
       </c>
       <c r="R13">
-        <v>1.340459239296</v>
+        <v>1.506000744576</v>
       </c>
       <c r="S13">
-        <v>0.001941946559318833</v>
+        <v>0.001659306446694252</v>
       </c>
       <c r="T13">
-        <v>0.001941946559318833</v>
+        <v>0.001659306446694252</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H14">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I14">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J14">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N14">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O14">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P14">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q14">
-        <v>0.05104072918366667</v>
+        <v>0.130646249964</v>
       </c>
       <c r="R14">
-        <v>0.459366562653</v>
+        <v>1.175816249676</v>
       </c>
       <c r="S14">
-        <v>0.0006654923101418726</v>
+        <v>0.00129551030452149</v>
       </c>
       <c r="T14">
-        <v>0.0006654923101418726</v>
+        <v>0.00129551030452149</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H15">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I15">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J15">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N15">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O15">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P15">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q15">
-        <v>0.6252824031553333</v>
+        <v>0.409628492783</v>
       </c>
       <c r="R15">
-        <v>5.627541628398</v>
+        <v>3.686656435047</v>
       </c>
       <c r="S15">
-        <v>0.008152717204911437</v>
+        <v>0.00406194539508186</v>
       </c>
       <c r="T15">
-        <v>0.008152717204911435</v>
+        <v>0.00406194539508186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H16">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I16">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J16">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N16">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O16">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P16">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q16">
-        <v>0.04319357287366667</v>
+        <v>0.062771940373</v>
       </c>
       <c r="R16">
-        <v>0.388742155863</v>
+        <v>0.5649474633570001</v>
       </c>
       <c r="S16">
-        <v>0.0005631775065661939</v>
+        <v>0.0006224571743194965</v>
       </c>
       <c r="T16">
-        <v>0.0005631775065661938</v>
+        <v>0.0006224571743194965</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H17">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I17">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J17">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N17">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O17">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P17">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q17">
-        <v>3.945391173504</v>
+        <v>3.797560525986111</v>
       </c>
       <c r="R17">
-        <v>35.508520561536</v>
+        <v>34.178044733875</v>
       </c>
       <c r="S17">
-        <v>0.05144180987345195</v>
+        <v>0.03765725227333137</v>
       </c>
       <c r="T17">
-        <v>0.05144180987345195</v>
+        <v>0.03765725227333137</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H18">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I18">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J18">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.468992</v>
       </c>
       <c r="O18">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P18">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q18">
-        <v>0.4508628664320001</v>
+        <v>0.3962006028088889</v>
       </c>
       <c r="R18">
-        <v>4.057765797888</v>
+        <v>3.56580542528</v>
       </c>
       <c r="S18">
-        <v>0.005878555720850373</v>
+        <v>0.0039287921676893</v>
       </c>
       <c r="T18">
-        <v>0.005878555720850372</v>
+        <v>0.003928792167689299</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H19">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I19">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J19">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N19">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O19">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P19">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q19">
-        <v>0.154507738176</v>
+        <v>0.30933524342</v>
       </c>
       <c r="R19">
-        <v>1.390569643584</v>
+        <v>2.78401719078</v>
       </c>
       <c r="S19">
-        <v>0.002014542371515453</v>
+        <v>0.003067420576654137</v>
       </c>
       <c r="T19">
-        <v>0.002014542371515453</v>
+        <v>0.003067420576654137</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H20">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I20">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J20">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N20">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O20">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P20">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q20">
-        <v>1.892821113216</v>
+        <v>0.9698902920038889</v>
       </c>
       <c r="R20">
-        <v>17.035390018944</v>
+        <v>8.729012628034999</v>
       </c>
       <c r="S20">
-        <v>0.02467946511474458</v>
+        <v>0.009617596126124008</v>
       </c>
       <c r="T20">
-        <v>0.02467946511474457</v>
+        <v>0.009617596126124006</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.209088</v>
+        <v>0.1837383333333333</v>
       </c>
       <c r="H21">
-        <v>0.627264</v>
+        <v>0.551215</v>
       </c>
       <c r="I21">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="J21">
-        <v>0.08571919360571637</v>
+        <v>0.05574487261247628</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N21">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O21">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P21">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q21">
-        <v>0.130753250496</v>
+        <v>0.1486271015094445</v>
       </c>
       <c r="R21">
-        <v>1.176779254464</v>
+        <v>1.337643913585</v>
       </c>
       <c r="S21">
-        <v>0.001704820525154006</v>
+        <v>0.001473811468677471</v>
       </c>
       <c r="T21">
-        <v>0.001704820525154006</v>
+        <v>0.001473811468677471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.119675</v>
+      </c>
+      <c r="I22">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J22">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>20.66830833333333</v>
+      </c>
+      <c r="N22">
+        <v>62.004925</v>
+      </c>
+      <c r="O22">
+        <v>0.6755285375771634</v>
+      </c>
+      <c r="P22">
+        <v>0.6755285375771634</v>
+      </c>
+      <c r="Q22">
+        <v>0.8244932665972221</v>
+      </c>
+      <c r="R22">
+        <v>7.420439399375001</v>
+      </c>
+      <c r="S22">
+        <v>0.008175814638228153</v>
+      </c>
+      <c r="T22">
+        <v>0.008175814638228154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.119675</v>
+      </c>
+      <c r="I23">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J23">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.156330666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.468992</v>
+      </c>
+      <c r="O23">
+        <v>0.07047809033489469</v>
+      </c>
+      <c r="P23">
+        <v>0.07047809033489467</v>
+      </c>
+      <c r="Q23">
+        <v>0.08601962417777778</v>
+      </c>
+      <c r="R23">
+        <v>0.7741766176</v>
+      </c>
+      <c r="S23">
+        <v>0.0008529851376835118</v>
+      </c>
+      <c r="T23">
+        <v>0.0008529851376835117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.119675</v>
+      </c>
+      <c r="I24">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J24">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.683564</v>
+      </c>
+      <c r="N24">
+        <v>5.050692</v>
+      </c>
+      <c r="O24">
+        <v>0.05502605769642779</v>
+      </c>
+      <c r="P24">
+        <v>0.05502605769642779</v>
+      </c>
+      <c r="Q24">
+        <v>0.06716017389999999</v>
+      </c>
+      <c r="R24">
+        <v>0.6044415651</v>
+      </c>
+      <c r="S24">
+        <v>0.0006659716399428242</v>
+      </c>
+      <c r="T24">
+        <v>0.0006659716399428243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.119675</v>
+      </c>
+      <c r="I25">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J25">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.278649666666666</v>
+      </c>
+      <c r="N25">
+        <v>15.835949</v>
+      </c>
+      <c r="O25">
+        <v>0.1725288026574751</v>
+      </c>
+      <c r="P25">
+        <v>0.1725288026574751</v>
+      </c>
+      <c r="Q25">
+        <v>0.2105741329527778</v>
+      </c>
+      <c r="R25">
+        <v>1.895167196575</v>
+      </c>
+      <c r="S25">
+        <v>0.002088088706573461</v>
+      </c>
+      <c r="T25">
+        <v>0.002088088706573461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.119675</v>
+      </c>
+      <c r="I26">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J26">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.8089063333333334</v>
+      </c>
+      <c r="N26">
+        <v>2.426719</v>
+      </c>
+      <c r="O26">
+        <v>0.02643851173403914</v>
+      </c>
+      <c r="P26">
+        <v>0.02643851173403913</v>
+      </c>
+      <c r="Q26">
+        <v>0.03226862181388889</v>
+      </c>
+      <c r="R26">
+        <v>0.290417596325</v>
+      </c>
+      <c r="S26">
+        <v>0.0003199811099370959</v>
+      </c>
+      <c r="T26">
+        <v>0.0003199811099370959</v>
       </c>
     </row>
   </sheetData>
